--- a/datasets/dividends/all.xlsx
+++ b/datasets/dividends/all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E660"/>
+  <dimension ref="A1:E662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3588,21 +3588,21 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RU000A0DKXV5</t>
+          <t>RU0009084396</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2019-07-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>2.494</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3613,21 +3613,21 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>RU000A0JPV70</t>
+          <t>RU000A0DKXV5</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MTLRP</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2014-07-11</t>
+          <t>2019-07-18</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2015-07-11</t>
+          <t>2014-07-11</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2016-07-11</t>
+          <t>2015-07-11</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3698,11 +3698,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2017-07-11</t>
+          <t>2016-07-11</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>5.14</v>
+        <v>0.05</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3723,11 +3723,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2018-07-18</t>
+          <t>2017-07-11</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>16.66</v>
+        <v>5.14</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3748,11 +3748,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2019-07-18</t>
+          <t>2018-07-18</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>18.21</v>
+        <v>16.66</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3773,11 +3773,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2020-07-17</t>
+          <t>2019-07-18</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3.48</v>
+        <v>18.21</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3798,11 +3798,11 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2020-07-17</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1.17</v>
+        <v>3.48</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3813,21 +3813,21 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RU0007775219</t>
+          <t>RU000A0JPV70</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MTSS</t>
+          <t>MTLRP</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>23.4</v>
+        <v>1.17</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3848,11 +3848,11 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2.6</v>
+        <v>23.4</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2019-07-09</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>19.98</v>
+        <v>2.6</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3898,11 +3898,11 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2019-10-14</t>
+          <t>2019-07-09</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>8.68</v>
+        <v>19.98</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3923,11 +3923,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-10-14</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>13.25</v>
+        <v>8.68</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3948,11 +3948,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>20.57</v>
+        <v>13.25</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3973,11 +3973,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-07-09</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>8.93</v>
+        <v>20.57</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3998,11 +3998,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>26.51</v>
+        <v>8.93</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4023,11 +4023,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>10.55</v>
+        <v>26.51</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4048,11 +4048,11 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>33.85</v>
+        <v>10.55</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4073,11 +4073,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2023-06-29</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>34.29</v>
+        <v>33.85</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4098,11 +4098,11 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2023-06-29</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>35</v>
+        <v>34.29</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4123,11 +4123,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2013-08-14</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5.22</v>
+        <v>35</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4148,11 +4148,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2014-07-07</t>
+          <t>2013-08-14</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>18.6</v>
+        <v>5.22</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4173,11 +4173,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2014-10-14</t>
+          <t>2014-07-07</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>6.2</v>
+        <v>18.6</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4198,11 +4198,11 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2015-07-07</t>
+          <t>2014-10-14</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>19.56</v>
+        <v>6.2</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4223,11 +4223,11 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2015-10-14</t>
+          <t>2015-07-07</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>5.61</v>
+        <v>19.56</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4248,11 +4248,11 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2016-07-05</t>
+          <t>2015-10-14</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>14.01</v>
+        <v>5.61</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4273,11 +4273,11 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2016-10-14</t>
+          <t>2016-07-05</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>11.99</v>
+        <v>14.01</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4298,11 +4298,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2017-07-10</t>
+          <t>2016-10-14</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>15.6</v>
+        <v>11.99</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4323,11 +4323,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2017-10-13</t>
+          <t>2017-07-10</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>10.4</v>
+        <v>15.6</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4338,21 +4338,21 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RU000A0JR4A1</t>
+          <t>RU0007775219</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MTSS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2014-07-11</t>
+          <t>2017-10-13</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2.38</v>
+        <v>10.4</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4373,11 +4373,11 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2015-05-12</t>
+          <t>2014-07-11</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>3.87</v>
+        <v>2.38</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4398,11 +4398,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2016-05-16</t>
+          <t>2015-05-12</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>7.11</v>
+        <v>3.87</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4423,11 +4423,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2017-05-16</t>
+          <t>2016-05-16</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>7.68</v>
+        <v>7.11</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4448,11 +4448,11 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2017-09-29</t>
+          <t>2017-05-16</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2.49</v>
+        <v>7.68</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4473,11 +4473,11 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>2017-09-29</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>5.47</v>
+        <v>2.49</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4498,11 +4498,11 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2019-05-14</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>7.7</v>
+        <v>5.47</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4523,11 +4523,11 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2019-05-14</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>7.93</v>
+        <v>7.7</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4548,11 +4548,11 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>9.449999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4573,11 +4573,11 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>4.84</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2023-06-16</t>
+          <t>2023-05-12</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -4623,11 +4623,11 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2023-06-16</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>17.35</v>
+        <v>4.84</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2111-01-01</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -4663,21 +4663,21 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RU0009024277</t>
+          <t>RU000A0JR4A1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2013-08-15</t>
+          <t>2111-01-01</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>50</v>
+        <v>17.35</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4698,11 +4698,11 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2014-07-15</t>
+          <t>2013-08-15</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2014-12-26</t>
+          <t>2014-07-15</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -4748,11 +4748,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2015-04-28</t>
+          <t>2014-12-26</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2015-07-14</t>
+          <t>2015-04-28</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -4823,11 +4823,11 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2015-12-24</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4848,11 +4848,11 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2016-07-12</t>
+          <t>2015-12-24</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4873,11 +4873,11 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2016-12-23</t>
+          <t>2016-07-12</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4898,11 +4898,11 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2017-07-10</t>
+          <t>2016-12-23</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4923,11 +4923,11 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2017-12-22</t>
+          <t>2017-07-10</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4948,11 +4948,11 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2018-07-11</t>
+          <t>2017-12-22</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4973,11 +4973,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2018-12-21</t>
+          <t>2018-07-11</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4998,11 +4998,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2019-07-09</t>
+          <t>2018-12-21</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5023,11 +5023,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-07-09</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5048,11 +5048,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5073,11 +5073,11 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2020-12-18</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5098,11 +5098,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2021-07-05</t>
+          <t>2020-12-18</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5123,11 +5123,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2021-07-05</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5148,11 +5148,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2021-12-21</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>537</v>
+        <v>340</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5173,11 +5173,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>438</v>
+        <v>537</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5198,11 +5198,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2023-12-17</t>
+          <t>2023-06-05</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5223,11 +5223,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2023-12-17</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5238,21 +5238,21 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RU0009046452</t>
+          <t>RU0009024277</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2014-06-17</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.67</v>
+        <v>498</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5273,11 +5273,11 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2014-10-11</t>
+          <t>2014-06-17</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5298,11 +5298,11 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2014-10-11</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1.64</v>
+        <v>0.88</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5323,11 +5323,11 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2015-10-12</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.93</v>
+        <v>1.64</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5348,11 +5348,11 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2016-01-08</t>
+          <t>2015-10-12</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1.95</v>
+        <v>0.93</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5373,11 +5373,11 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2016-06-14</t>
+          <t>2016-01-08</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1.13</v>
+        <v>1.95</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5398,11 +5398,11 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2016-06-14</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5423,11 +5423,11 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2017-01-09</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>3.63</v>
+        <v>1.08</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5448,11 +5448,11 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2017-06-14</t>
+          <t>2017-01-09</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2.35</v>
+        <v>3.63</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5473,11 +5473,11 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2017-10-12</t>
+          <t>2017-06-14</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5498,11 +5498,11 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2018-01-09</t>
+          <t>2017-10-12</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>5.13</v>
+        <v>3.2</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5523,11 +5523,11 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2018-01-09</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>5.73</v>
+        <v>5.13</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5548,11 +5548,11 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2018-10-12</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>5.24</v>
+        <v>5.73</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -5573,11 +5573,11 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2019-01-09</t>
+          <t>2018-10-12</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>6.04</v>
+        <v>5.24</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -5598,11 +5598,11 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2019-05-06</t>
+          <t>2019-01-09</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>5.8</v>
+        <v>6.04</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -5623,11 +5623,11 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2019-06-19</t>
+          <t>2019-05-06</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>7.34</v>
+        <v>5.8</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -5648,11 +5648,11 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2019-06-19</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>3.68</v>
+        <v>7.34</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -5673,11 +5673,11 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-10-10</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>3.22</v>
+        <v>3.68</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -5698,11 +5698,11 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>5.16</v>
+        <v>3.22</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5723,11 +5723,11 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>3.12</v>
+        <v>5.16</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5748,11 +5748,11 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2020-07-13</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>3.21</v>
+        <v>3.12</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5773,11 +5773,11 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-07-13</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>4.75</v>
+        <v>3.21</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -5798,11 +5798,11 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>6.43</v>
+        <v>4.75</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -5823,11 +5823,11 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2020-12-29</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>7.25</v>
+        <v>6.43</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -5848,11 +5848,11 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>7.71</v>
+        <v>7.25</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -5873,11 +5873,11 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2021-09-07</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>13.62</v>
+        <v>7.71</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2021-09-07</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>13.33</v>
+        <v>13.62</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -5923,11 +5923,11 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2.6</v>
+        <v>13.33</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -5948,11 +5948,11 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>25.43</v>
+        <v>2.6</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -5963,21 +5963,21 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RU000A0JP7J7</t>
+          <t>RU0009046452</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PIKK</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2014-11-05</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>4.16</v>
+        <v>25.43</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -5998,11 +5998,11 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2018-09-04</t>
+          <t>2014-11-05</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>22.71</v>
+        <v>4.16</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2019-06-03</t>
+          <t>2018-09-04</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -6073,11 +6073,11 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>22.51</v>
+        <v>22.71</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -6088,21 +6088,21 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>RU000A0JNAA8</t>
+          <t>RU000A0JP7J7</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PLZL</t>
+          <t>PIKK</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2017-07-17</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>152.41</v>
+        <v>22.51</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -6123,11 +6123,11 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2017-09-25</t>
+          <t>2017-07-17</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>104.3</v>
+        <v>152.41</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -6148,11 +6148,11 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2018-06-10</t>
+          <t>2017-09-25</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>147.12</v>
+        <v>104.3</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -6173,11 +6173,11 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2018-06-10</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>131.11</v>
+        <v>147.12</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -6198,11 +6198,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2019-05-16</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>143.62</v>
+        <v>131.11</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -6223,11 +6223,11 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2019-05-16</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>162.98</v>
+        <v>143.62</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -6248,11 +6248,11 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2019-10-10</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>244.75</v>
+        <v>162.98</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -6273,11 +6273,11 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>240.18</v>
+        <v>244.75</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -6298,11 +6298,11 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>387.15</v>
+        <v>240.18</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -6323,11 +6323,11 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2021-10-11</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>267.48</v>
+        <v>387.15</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -6348,11 +6348,11 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2023-06-16</t>
+          <t>2021-10-11</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>436.79</v>
+        <v>267.48</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -6363,21 +6363,21 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>RU0008943394</t>
+          <t>RU000A0JNAA8</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>RTKM</t>
+          <t>PLZL</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2014-07-14</t>
+          <t>2023-06-16</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>3.12</v>
+        <v>436.79</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -6398,11 +6398,11 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2015-07-03</t>
+          <t>2014-07-14</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2016-07-08</t>
+          <t>2015-07-03</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>5.92</v>
+        <v>3.34</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -6448,11 +6448,11 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2017-07-07</t>
+          <t>2016-07-08</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>5.39</v>
+        <v>5.92</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -6473,11 +6473,11 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2018-07-08</t>
+          <t>2017-07-07</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>5.045825249373</v>
+        <v>5.39</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -6498,11 +6498,11 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2018-07-08</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2.5</v>
+        <v>5.045825249373</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2019-07-04</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -6548,11 +6548,11 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2019-07-04</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -6598,11 +6598,11 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>4.56</v>
+        <v>5</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -6623,11 +6623,11 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>5.4465</v>
+        <v>4.56</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -6638,21 +6638,21 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>RU0009046700</t>
+          <t>RU0008943394</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>RTKMP</t>
+          <t>RTKM</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2014-07-14</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>4.85</v>
+        <v>5.4465</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -6673,11 +6673,11 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2015-07-03</t>
+          <t>2014-07-14</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>4.05</v>
+        <v>4.85</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -6698,11 +6698,11 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2016-07-08</t>
+          <t>2015-07-03</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>5.92</v>
+        <v>4.05</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -6723,11 +6723,11 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2017-07-07</t>
+          <t>2016-07-08</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5.39</v>
+        <v>5.92</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -6748,11 +6748,11 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2018-07-08</t>
+          <t>2017-07-07</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>5.045825249373</v>
+        <v>5.39</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -6773,11 +6773,11 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2018-07-08</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2.5</v>
+        <v>5.045825249373</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2019-07-04</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -6823,11 +6823,11 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2019-07-04</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -6873,11 +6873,11 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>4.56</v>
+        <v>5</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -6898,11 +6898,11 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>5.4465</v>
+        <v>4.56</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -6913,21 +6913,21 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RU0009029540</t>
+          <t>RU0009046700</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>RTKMP</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2019-06-13</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>16</v>
+        <v>5.4465</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -6948,11 +6948,11 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2019-06-13</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>18.7</v>
+        <v>16</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -6998,11 +6998,11 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>25</v>
+        <v>18.7</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -7023,11 +7023,11 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2023-05-11</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>33.3</v>
+        <v>25</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -7048,11 +7048,11 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2014-06-17</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>3.2</v>
+        <v>33.3</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -7073,11 +7073,11 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2015-06-15</t>
+          <t>2014-06-17</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0.45</v>
+        <v>3.2</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -7098,11 +7098,11 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2016-06-14</t>
+          <t>2015-06-15</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1.97</v>
+        <v>0.45</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -7123,11 +7123,11 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2017-06-14</t>
+          <t>2016-06-14</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>6</v>
+        <v>1.97</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -7148,11 +7148,11 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2018-06-26</t>
+          <t>2017-06-14</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -7163,21 +7163,21 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RU0009029557</t>
+          <t>RU0009029540</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2019-06-13</t>
+          <t>2018-06-26</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -7198,11 +7198,11 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2019-06-13</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>18.7</v>
+        <v>16</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -7248,11 +7248,11 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2023-05-11</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>25</v>
+        <v>18.7</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -7273,11 +7273,11 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2023-05-11</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>33.3</v>
+        <v>25</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -7298,11 +7298,11 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2014-06-17</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3.2</v>
+        <v>33.3</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -7323,11 +7323,11 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2015-06-15</t>
+          <t>2014-06-17</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0.45</v>
+        <v>3.2</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -7348,11 +7348,11 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2016-06-14</t>
+          <t>2015-06-15</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1.97</v>
+        <v>0.45</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -7373,11 +7373,11 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2017-06-14</t>
+          <t>2016-06-14</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>6</v>
+        <v>1.97</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -7398,11 +7398,11 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2018-06-26</t>
+          <t>2017-06-14</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -7413,21 +7413,21 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>RU0009046510</t>
+          <t>RU0009029557</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2013-08-12</t>
+          <t>2018-06-26</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>2.03</v>
+        <v>12</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -7448,11 +7448,11 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2013-10-31</t>
+          <t>2013-08-12</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -7473,11 +7473,11 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2014-06-23</t>
+          <t>2013-10-31</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>2.43</v>
+        <v>2.01</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -7498,11 +7498,11 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2014-09-22</t>
+          <t>2014-06-23</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2.14</v>
+        <v>2.43</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -7523,11 +7523,11 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2014-11-25</t>
+          <t>2014-09-22</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>54.46</v>
+        <v>2.14</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -7548,11 +7548,11 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2014-11-25</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>12.81</v>
+        <v>54.46</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -7573,11 +7573,11 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2015-09-28</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>12.63</v>
+        <v>12.81</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -7598,11 +7598,11 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2015-12-21</t>
+          <t>2015-09-28</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>13.17</v>
+        <v>12.63</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -7623,11 +7623,11 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2016-07-05</t>
+          <t>2015-12-21</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>8.25</v>
+        <v>13.17</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -7648,11 +7648,11 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2016-09-02</t>
+          <t>2016-07-05</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>19.66</v>
+        <v>8.25</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2016-09-16</t>
+          <t>2016-09-02</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -7698,11 +7698,11 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2016-12-13</t>
+          <t>2016-09-16</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>24.96</v>
+        <v>19.66</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -7723,11 +7723,11 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2017-06-20</t>
+          <t>2016-12-13</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>24.44</v>
+        <v>24.96</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -7748,11 +7748,11 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2017-09-26</t>
+          <t>2017-06-20</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>22.28</v>
+        <v>24.44</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -7773,11 +7773,11 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2017-12-05</t>
+          <t>2017-09-26</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>35.61</v>
+        <v>22.28</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -7798,11 +7798,11 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2018-06-19</t>
+          <t>2017-12-05</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>38.32</v>
+        <v>35.61</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -7823,11 +7823,11 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2018-09-25</t>
+          <t>2018-06-19</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>45.94</v>
+        <v>38.32</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -7848,11 +7848,11 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2018-12-04</t>
+          <t>2018-09-25</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>44.39</v>
+        <v>45.94</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -7873,11 +7873,11 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2019-05-07</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>32.08</v>
+        <v>44.39</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -7898,11 +7898,11 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2019-06-18</t>
+          <t>2019-05-07</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>35.43</v>
+        <v>32.08</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -7923,11 +7923,11 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2019-09-17</t>
+          <t>2019-06-18</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>26.72</v>
+        <v>35.43</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -7948,11 +7948,11 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>27.47</v>
+        <v>26.72</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -7973,11 +7973,11 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2020-06-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>26.26</v>
+        <v>27.47</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -7998,11 +7998,11 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>2020-06-16</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>15.44</v>
+        <v>26.26</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -8023,11 +8023,11 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2020-12-08</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>37.34</v>
+        <v>15.44</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -8048,11 +8048,11 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>2020-12-08</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>36.27</v>
+        <v>37.34</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -8073,11 +8073,11 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>84.45</v>
+        <v>36.27</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -8098,11 +8098,11 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>85.93000000000001</v>
+        <v>84.45</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -8123,11 +8123,11 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>109.81</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -8148,11 +8148,11 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>191.51</v>
+        <v>109.81</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -8163,21 +8163,21 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>RU000A0JNUD0</t>
+          <t>RU0009046510</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TGKA</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2015-07-10</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>191.51</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -8188,21 +8188,21 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>RU000A0JNUD0</t>
+          <t>RU0009046510</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TGKA</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2016-07-07</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>31.06</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2017-07-07</t>
+          <t>2015-07-10</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -8238,21 +8238,21 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>RU0009091573</t>
+          <t>RU000A0JNUD0</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TRNFP</t>
+          <t>TGKA</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2018-07-10</t>
+          <t>2016-07-07</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>7578.27</v>
+        <v>0</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -8263,21 +8263,21 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>RU0009091573</t>
+          <t>RU000A0JNUD0</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TRNFP</t>
+          <t>TGKA</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>2019-07-20</t>
+          <t>2017-07-07</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>10705.95</v>
+        <v>0</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -8298,11 +8298,11 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2018-07-10</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>11612.2</v>
+        <v>7578.27</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -8323,11 +8323,11 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>2019-07-20</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>9224.280000000001</v>
+        <v>10705.95</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -8348,11 +8348,11 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>10497.36</v>
+        <v>11612.2</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -8373,11 +8373,11 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>16665.2</v>
+        <v>9224.280000000001</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -8398,11 +8398,11 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2111-01-01</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>177.2</v>
+        <v>10497.36</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -8423,11 +8423,11 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2014-07-20</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>724.21</v>
+        <v>16665.2</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -8448,11 +8448,11 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2015-07-20</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>757.87</v>
+        <v>177.2</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -8473,11 +8473,11 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2016-07-20</t>
+          <t>2014-07-20</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>823.3099999999999</v>
+        <v>724.21</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -8498,11 +8498,11 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2017-07-20</t>
+          <t>2015-07-20</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>4296.48</v>
+        <v>757.87</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -8523,11 +8523,11 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>2017-09-19</t>
+          <t>2016-07-20</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>3875.49</v>
+        <v>823.3099999999999</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -8538,21 +8538,21 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>RU000A0JPKH7</t>
+          <t>RU0009091573</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>TRNFP</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2014-07-08</t>
+          <t>2017-07-20</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0.01</v>
+        <v>4296.48</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -8563,21 +8563,21 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>RU000A0JPKH7</t>
+          <t>RU0009091573</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>TRNFP</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2015-07-07</t>
+          <t>2017-09-19</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0.02</v>
+        <v>3875.49</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -8598,11 +8598,11 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2016-07-08</t>
+          <t>2014-07-08</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -8623,11 +8623,11 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2017-07-10</t>
+          <t>2015-07-07</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -8648,11 +8648,11 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2018-07-07</t>
+          <t>2016-07-08</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0.0263335</v>
+        <v>0.04</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -8673,11 +8673,11 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2019-07-09</t>
+          <t>2017-07-10</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0.0367388</v>
+        <v>0.05</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -8698,11 +8698,11 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2020-10-10</t>
+          <t>2018-07-07</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0.03568039</v>
+        <v>0.0263335</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -8723,11 +8723,11 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2021-07-10</t>
+          <t>2019-07-09</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0.0530482</v>
+        <v>0.0367388</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -8748,11 +8748,11 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2020-10-10</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0.05304937</v>
+        <v>0.03568039</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -8773,11 +8773,11 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2021-07-10</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0.050254795</v>
+        <v>0.0530482</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -8788,21 +8788,21 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>RU000A0JPNN9</t>
+          <t>RU000A0JPKH7</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>0.05304937</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -8813,21 +8813,21 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>RU000A0JPNN9</t>
+          <t>RU000A0JPKH7</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2015-07-16</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>0.050254795</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -8848,11 +8848,11 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2016-07-11</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2017-07-19</t>
+          <t>2015-07-16</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -8898,11 +8898,11 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2018-07-18</t>
+          <t>2016-07-11</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0.014815395834</v>
+        <v>0.01</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -8923,11 +8923,11 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2019-07-16</t>
+          <t>2017-07-19</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>0.016042926012</v>
+        <v>0</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -8948,11 +8948,11 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2018-07-18</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0.008809607650000001</v>
+        <v>0.014815395834</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -8973,11 +8973,11 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2020-05-29</t>
+          <t>2019-07-16</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0.009494338212000001</v>
+        <v>0.016042926012</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -8998,11 +8998,11 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0.016132865449</v>
+        <v>0.008809607650000001</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -9013,21 +9013,21 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>RU000A0JRKT8</t>
+          <t>RU000A0JPNN9</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>PHOR</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2013-09-06</t>
+          <t>2020-05-29</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>15.45</v>
+        <v>0.009494338212000001</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -9038,21 +9038,21 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>RU000A0JRKT8</t>
+          <t>RU000A0JPNN9</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>PHOR</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2014-06-24</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>19.3</v>
+        <v>0.016132865449</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -9073,11 +9073,11 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2014-09-29</t>
+          <t>2013-09-06</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>25</v>
+        <v>15.45</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -9098,11 +9098,11 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2015-01-11</t>
+          <t>2014-06-24</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>20</v>
+        <v>19.3</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -9123,11 +9123,11 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2015-05-27</t>
+          <t>2014-09-29</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -9148,11 +9148,11 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2015-06-19</t>
+          <t>2015-01-11</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -9173,11 +9173,11 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2015-10-17</t>
+          <t>2015-05-27</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -9198,11 +9198,11 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2016-01-26</t>
+          <t>2015-06-19</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2016-06-11</t>
+          <t>2015-10-17</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2016-08-10</t>
+          <t>2016-01-26</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -9273,11 +9273,11 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2016-10-14</t>
+          <t>2016-06-11</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -9298,11 +9298,11 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>2017-01-27</t>
+          <t>2016-08-10</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -9323,11 +9323,11 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2017-06-13</t>
+          <t>2016-10-14</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -9348,11 +9348,11 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2017-07-17</t>
+          <t>2017-01-27</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -9373,11 +9373,11 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>2017-10-13</t>
+          <t>2017-06-13</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2018-03-12</t>
+          <t>2017-07-17</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -9423,11 +9423,11 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2018-06-13</t>
+          <t>2017-10-13</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -9448,11 +9448,11 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2018-07-23</t>
+          <t>2018-03-12</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -9473,11 +9473,11 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2018-10-12</t>
+          <t>2018-06-13</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -9498,11 +9498,11 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2019-02-04</t>
+          <t>2018-07-23</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -9523,11 +9523,11 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>2019-06-10</t>
+          <t>2018-10-12</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2019-07-10</t>
+          <t>2019-02-04</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -9573,11 +9573,11 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2019-10-15</t>
+          <t>2019-06-10</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -9598,11 +9598,11 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2019-07-10</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -9623,11 +9623,11 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2020-06-02</t>
+          <t>2019-10-15</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -9648,11 +9648,11 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -9673,11 +9673,11 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -9698,11 +9698,11 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-07-06</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -9723,11 +9723,11 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -9748,11 +9748,11 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>2021-07-05</t>
+          <t>2020-12-25</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -9773,11 +9773,11 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -9798,11 +9798,11 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2021-12-20</t>
+          <t>2021-07-05</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -9823,11 +9823,11 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>390</v>
+        <v>156</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -9848,11 +9848,11 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>780</v>
+        <v>234</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -9873,11 +9873,11 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -9898,11 +9898,11 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>465</v>
+        <v>780</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -9923,11 +9923,11 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -9948,11 +9948,11 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>126</v>
+        <v>465</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -9973,11 +9973,11 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2023-12-25</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -9998,11 +9998,11 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>294</v>
+        <v>126</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -10013,21 +10013,21 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>RU000A0JVW89</t>
+          <t>RU000A0JRKT8</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>SFIN</t>
+          <t>PHOR</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2019-06-08</t>
+          <t>2023-12-25</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>14.5</v>
+        <v>291</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -10038,21 +10038,21 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>RU000A0JVW89</t>
+          <t>RU000A0JRKT8</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>SFIN</t>
+          <t>PHOR</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>2023-12-14</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>39.42</v>
+        <v>294</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -10073,11 +10073,11 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2019-06-08</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>20.6000025833549</v>
+        <v>14.5</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -10098,11 +10098,11 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2017-12-26</t>
+          <t>2023-12-14</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>13</v>
+        <v>39.42</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -10123,11 +10123,11 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2018-06-08</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>17.25</v>
+        <v>20.6000025833549</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -10138,21 +10138,21 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>RU000A0JNGA5</t>
+          <t>RU000A0JVW89</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>UPRO</t>
+          <t>SFIN</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2018-07-03</t>
+          <t>2017-12-26</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0.1110252759795</v>
+        <v>13</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -10163,21 +10163,21 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>RU000A0JNGA5</t>
+          <t>RU000A0JVW89</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>UPRO</t>
+          <t>SFIN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2018-12-18</t>
+          <t>2018-06-08</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0.1110252759795</v>
+        <v>17.25</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -10198,11 +10198,11 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2019-06-25</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0.111025275979</v>
+        <v>0.1110252759795</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -10223,11 +10223,11 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2019-12-15</t>
+          <t>2018-12-18</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>0.111025275979</v>
+        <v>0.1110252759795</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2019-06-25</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2020-12-20</t>
+          <t>2019-12-15</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -10298,11 +10298,11 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0.126886029691</v>
+        <v>0.111025275979</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -10323,11 +10323,11 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>2020-12-20</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0.190329044536</v>
+        <v>0.111025275979</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -10348,11 +10348,11 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>2014-07-07</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="D397" t="n">
-        <v>0.38</v>
+        <v>0.126886029691</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -10373,11 +10373,11 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2015-07-07</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0.28</v>
+        <v>0.190329044536</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -10398,11 +10398,11 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2016-07-04</t>
+          <t>2014-07-07</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -10423,11 +10423,11 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>2016-12-19</t>
+          <t>2015-07-07</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -10448,11 +10448,11 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2017-07-04</t>
+          <t>2016-07-04</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -10473,11 +10473,11 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2017-12-18</t>
+          <t>2016-12-19</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -10488,21 +10488,21 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>RU000A0JSE60</t>
+          <t>RU000A0JNGA5</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>RNFT</t>
+          <t>UPRO</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>2019-07-11</t>
+          <t>2017-07-04</t>
         </is>
       </c>
       <c r="D403" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -10513,21 +10513,21 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>RU0008958863</t>
+          <t>RU000A0JNGA5</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>MSNG</t>
+          <t>UPRO</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2014-06-16</t>
+          <t>2017-12-18</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -10538,21 +10538,21 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>RU0008958863</t>
+          <t>RU000A0JSE60</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>MSNG</t>
+          <t>RNFT</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2015-06-24</t>
+          <t>2019-07-11</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -10573,11 +10573,11 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2016-06-17</t>
+          <t>2014-06-16</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -10598,11 +10598,11 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>2017-06-14</t>
+          <t>2015-06-24</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -10623,11 +10623,11 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2016-06-17</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -10638,21 +10638,21 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>RU000A0DKVS5</t>
+          <t>RU0008958863</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MSNG</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2018-10-10</t>
+          <t>2017-06-14</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>9.25</v>
+        <v>0.08</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -10663,21 +10663,21 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>RU000A0DKVS5</t>
+          <t>RU0008958863</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MSNG</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2019-05-06</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>16.81</v>
+        <v>0.17</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -10698,11 +10698,11 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2019-10-10</t>
+          <t>2018-10-10</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>14.23</v>
+        <v>9.25</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -10723,11 +10723,11 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2019-05-06</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>18.1</v>
+        <v>16.81</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -10748,11 +10748,11 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2019-10-10</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>11.82</v>
+        <v>14.23</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -10773,11 +10773,11 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>23.74</v>
+        <v>18.1</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -10798,11 +10798,11 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2021-10-11</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="D415" t="n">
-        <v>27.67</v>
+        <v>11.82</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -10823,11 +10823,11 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>43.77</v>
+        <v>23.74</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -10848,11 +10848,11 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2021-10-11</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>45</v>
+        <v>27.67</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -10873,11 +10873,11 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2023-05-03</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>60.58</v>
+        <v>43.77</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -10898,11 +10898,11 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2022-10-09</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>34.5</v>
+        <v>45</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -10923,11 +10923,11 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2023-05-03</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>44.09</v>
+        <v>60.58</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -10948,11 +10948,11 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2013-09-16</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>3.4</v>
+        <v>34.5</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -10973,11 +10973,11 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2014-04-29</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>4.49</v>
+        <v>44.09</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -10998,11 +10998,11 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>2014-10-27</t>
+          <t>2013-09-16</t>
         </is>
       </c>
       <c r="D423" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -11023,11 +11023,11 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>2015-05-05</t>
+          <t>2014-04-29</t>
         </is>
       </c>
       <c r="D424" t="n">
-        <v>5.2</v>
+        <v>4.49</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -11048,11 +11048,11 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2015-10-06</t>
+          <t>2014-10-27</t>
         </is>
       </c>
       <c r="D425" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -11073,11 +11073,11 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>2016-05-04</t>
+          <t>2015-05-05</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>6.9</v>
+        <v>5.2</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -11098,11 +11098,11 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>2016-10-11</t>
+          <t>2015-10-06</t>
         </is>
       </c>
       <c r="D427" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -11123,11 +11123,11 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2017-05-02</t>
+          <t>2016-05-04</t>
         </is>
       </c>
       <c r="D428" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -11148,11 +11148,11 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>2017-10-10</t>
+          <t>2016-10-11</t>
         </is>
       </c>
       <c r="D429" t="n">
-        <v>6.95</v>
+        <v>6.9</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -11173,11 +11173,11 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>2018-05-03</t>
+          <t>2017-05-02</t>
         </is>
       </c>
       <c r="D430" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -11188,21 +11188,21 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>RU000A0J2Q06</t>
+          <t>RU000A0DKVS5</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>2014-07-08</t>
+          <t>2017-10-10</t>
         </is>
       </c>
       <c r="D431" t="n">
-        <v>12.85</v>
+        <v>6.95</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -11213,21 +11213,21 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>RU000A0J2Q06</t>
+          <t>RU000A0DKVS5</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>2015-06-29</t>
+          <t>2018-05-03</t>
         </is>
       </c>
       <c r="D432" t="n">
-        <v>8.210000000000001</v>
+        <v>8</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -11248,11 +11248,11 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>2016-06-27</t>
+          <t>2014-07-08</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>11.75</v>
+        <v>12.85</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -11273,11 +11273,11 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>2017-07-03</t>
+          <t>2015-06-29</t>
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5.98</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -11298,11 +11298,11 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2017-10-10</t>
+          <t>2016-06-27</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>3.83</v>
+        <v>11.75</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -11323,11 +11323,11 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2018-07-02</t>
+          <t>2017-07-03</t>
         </is>
       </c>
       <c r="D436" t="n">
-        <v>6.65</v>
+        <v>5.98</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -11348,11 +11348,11 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2017-10-10</t>
         </is>
       </c>
       <c r="D437" t="n">
-        <v>14.58</v>
+        <v>3.83</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -11373,11 +11373,11 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2019-06-17</t>
+          <t>2018-07-02</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>11.33</v>
+        <v>6.65</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -11398,11 +11398,11 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2019-10-11</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>15.34</v>
+        <v>14.58</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -11423,11 +11423,11 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>2020-06-15</t>
+          <t>2019-06-17</t>
         </is>
       </c>
       <c r="D440" t="n">
-        <v>18.07</v>
+        <v>11.33</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -11448,11 +11448,11 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2019-10-11</t>
         </is>
       </c>
       <c r="D441" t="n">
-        <v>6.94</v>
+        <v>15.34</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -11473,11 +11473,11 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>2021-10-11</t>
+          <t>2020-06-15</t>
         </is>
       </c>
       <c r="D442" t="n">
-        <v>18.03</v>
+        <v>18.07</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -11498,11 +11498,11 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="D443" t="n">
-        <v>23.63</v>
+        <v>6.94</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2021-10-11</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>20.39</v>
+        <v>18.03</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -11548,11 +11548,11 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="D445" t="n">
-        <v>17.97</v>
+        <v>23.63</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -11573,11 +11573,11 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="D446" t="n">
-        <v>30.77</v>
+        <v>20.39</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -11598,11 +11598,11 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>29.01</v>
+        <v>17.97</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -11613,21 +11613,21 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RU0009033591</t>
+          <t>RU000A0J2Q06</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2018-07-06</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>12.16</v>
+        <v>30.77</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -11638,21 +11638,21 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RU0009033591</t>
+          <t>RU000A0J2Q06</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>2018-10-12</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="D449" t="n">
-        <v>30.27</v>
+        <v>29.01</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -11673,11 +11673,11 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>2019-01-09</t>
+          <t>2018-07-06</t>
         </is>
       </c>
       <c r="D450" t="n">
-        <v>22.26</v>
+        <v>12.16</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -11698,11 +11698,11 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>2019-07-05</t>
+          <t>2018-10-12</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>32.38</v>
+        <v>30.27</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
@@ -11723,11 +11723,11 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-01-09</t>
         </is>
       </c>
       <c r="D452" t="n">
-        <v>40.11</v>
+        <v>22.26</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -11748,11 +11748,11 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-07-05</t>
         </is>
       </c>
       <c r="D453" t="n">
-        <v>24.36</v>
+        <v>32.38</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -11773,11 +11773,11 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>40.11</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -11798,11 +11798,11 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>9.94</v>
+        <v>24.36</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="D456" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -11848,11 +11848,11 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="D457" t="n">
-        <v>16.52</v>
+        <v>9.94</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -11873,11 +11873,11 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>9.98</v>
+        <v>12.3</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -11898,11 +11898,11 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="D459" t="n">
-        <v>16.14</v>
+        <v>16.52</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -11923,11 +11923,11 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="D460" t="n">
-        <v>32.71</v>
+        <v>9.98</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -11948,11 +11948,11 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="D461" t="n">
-        <v>6.86</v>
+        <v>16.14</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -11973,11 +11973,11 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="D462" t="n">
-        <v>27.71</v>
+        <v>32.71</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -11998,11 +11998,11 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="D463" t="n">
-        <v>27.71</v>
+        <v>6.86</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -12023,11 +12023,11 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>27.54</v>
+        <v>27.71</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -12048,11 +12048,11 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>35.17</v>
+        <v>27.71</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -12073,11 +12073,11 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="D466" t="n">
-        <v>25.17</v>
+        <v>27.54</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -12098,11 +12098,11 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="D467" t="n">
-        <v>25.17</v>
+        <v>35.17</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -12123,11 +12123,11 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="D468" t="n">
-        <v>8.23</v>
+        <v>25.17</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -12148,11 +12148,11 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="D469" t="n">
-        <v>10.58</v>
+        <v>25.17</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -12173,11 +12173,11 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>2016-06-24</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="D470" t="n">
-        <v>10.96</v>
+        <v>8.23</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -12198,11 +12198,11 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>2016-07-08</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="D471" t="n">
-        <v>10.96</v>
+        <v>10.58</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -12223,11 +12223,11 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>2017-07-07</t>
+          <t>2016-06-24</t>
         </is>
       </c>
       <c r="D472" t="n">
-        <v>22.81</v>
+        <v>10.96</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -12248,11 +12248,11 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>2017-12-23</t>
+          <t>2016-07-08</t>
         </is>
       </c>
       <c r="D473" t="n">
-        <v>27.78</v>
+        <v>10.96</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -12263,21 +12263,21 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RU0006944147</t>
+          <t>RU0009033591</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TATNP</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2018-07-06</t>
+          <t>2017-07-07</t>
         </is>
       </c>
       <c r="D474" t="n">
-        <v>12.16</v>
+        <v>22.81</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -12288,21 +12288,21 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RU0006944147</t>
+          <t>RU0009033591</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TATNP</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>2018-10-12</t>
+          <t>2017-12-23</t>
         </is>
       </c>
       <c r="D475" t="n">
-        <v>30.27</v>
+        <v>27.78</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -12323,11 +12323,11 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2019-01-09</t>
+          <t>2018-07-06</t>
         </is>
       </c>
       <c r="D476" t="n">
-        <v>22.26</v>
+        <v>12.16</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -12348,11 +12348,11 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2019-07-05</t>
+          <t>2018-10-12</t>
         </is>
       </c>
       <c r="D477" t="n">
-        <v>32.38</v>
+        <v>30.27</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -12373,11 +12373,11 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>2019-09-27</t>
+          <t>2019-01-09</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>40.11</v>
+        <v>22.26</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -12398,11 +12398,11 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-07-05</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>24.36</v>
+        <v>32.38</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -12423,11 +12423,11 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>1</v>
+        <v>40.11</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -12448,11 +12448,11 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="D481" t="n">
-        <v>9.94</v>
+        <v>24.36</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -12473,11 +12473,11 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="D482" t="n">
-        <v>12.3</v>
+        <v>1</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -12498,11 +12498,11 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2021-10-12</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>16.52</v>
+        <v>9.94</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -12523,11 +12523,11 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="D484" t="n">
-        <v>9.98</v>
+        <v>12.3</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -12548,11 +12548,11 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2021-10-12</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>16.14</v>
+        <v>16.52</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -12573,11 +12573,11 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>32.71</v>
+        <v>9.98</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -12598,11 +12598,11 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="D487" t="n">
-        <v>6.86</v>
+        <v>16.14</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -12623,11 +12623,11 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>27.71</v>
+        <v>32.71</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -12648,11 +12648,11 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="D489" t="n">
-        <v>27.71</v>
+        <v>6.86</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -12673,11 +12673,11 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="D490" t="n">
-        <v>27.54</v>
+        <v>27.71</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -12698,11 +12698,11 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="D491" t="n">
-        <v>35.17</v>
+        <v>27.71</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -12723,11 +12723,11 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="D492" t="n">
-        <v>25.17</v>
+        <v>27.54</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -12748,11 +12748,11 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="D493" t="n">
-        <v>25.17</v>
+        <v>35.17</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -12773,11 +12773,11 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="D494" t="n">
-        <v>8.23</v>
+        <v>25.17</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -12798,11 +12798,11 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="D495" t="n">
-        <v>10.58</v>
+        <v>25.17</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -12823,11 +12823,11 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>2016-06-24</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="D496" t="n">
-        <v>10.96</v>
+        <v>8.23</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -12848,11 +12848,11 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2016-07-08</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="D497" t="n">
-        <v>10.96</v>
+        <v>10.58</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -12873,11 +12873,11 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>2017-07-07</t>
+          <t>2016-06-24</t>
         </is>
       </c>
       <c r="D498" t="n">
-        <v>22.81</v>
+        <v>10.96</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -12898,11 +12898,11 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2017-12-23</t>
+          <t>2016-07-08</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>27.78</v>
+        <v>10.96</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -12913,46 +12913,46 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>US6708662019</t>
+          <t>RU0006944147</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>OKEY</t>
+          <t>TATNP</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2018-01-25</t>
+          <t>2017-07-07</t>
         </is>
       </c>
       <c r="D500" t="n">
-        <v>0.12</v>
+        <v>22.81</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>RUB</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>RU0009028674</t>
+          <t>RU0006944147</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>AKRN</t>
+          <t>TATNP</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>2014-06-09</t>
+          <t>2017-12-23</t>
         </is>
       </c>
       <c r="D501" t="n">
-        <v>152</v>
+        <v>27.78</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -12963,25 +12963,25 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>RU0009028674</t>
+          <t>US6708662019</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>AKRN</t>
+          <t>OKEY</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>2015-06-02</t>
+          <t>2018-01-25</t>
         </is>
       </c>
       <c r="D502" t="n">
-        <v>139</v>
+        <v>0.12</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
@@ -12998,11 +12998,11 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2016-06-14</t>
+          <t>2014-06-09</t>
         </is>
       </c>
       <c r="D503" t="n">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -13023,11 +13023,11 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>2016-09-20</t>
+          <t>2015-06-02</t>
         </is>
       </c>
       <c r="D504" t="n">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -13048,11 +13048,11 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>2017-07-11</t>
+          <t>2016-06-14</t>
         </is>
       </c>
       <c r="D505" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -13073,11 +13073,11 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>2017-09-26</t>
+          <t>2016-09-20</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -13098,11 +13098,11 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>2018-01-23</t>
+          <t>2017-07-11</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -13123,11 +13123,11 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>2018-06-14</t>
+          <t>2017-09-26</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -13138,21 +13138,21 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>RU000A0JNG55</t>
+          <t>RU0009028674</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>OGKB</t>
+          <t>AKRN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>2015-06-25</t>
+          <t>2018-01-23</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0.01</v>
+        <v>112</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -13163,21 +13163,21 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>RU000A0JNG55</t>
+          <t>RU0009028674</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>OGKB</t>
+          <t>AKRN</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2018-06-14</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0.01</v>
+        <v>185</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>2017-06-02</t>
+          <t>2015-06-25</t>
         </is>
       </c>
       <c r="D511" t="n">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>2017-06-20</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -13248,11 +13248,11 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2018-07-10</t>
+          <t>2017-06-02</t>
         </is>
       </c>
       <c r="D513" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -13263,21 +13263,21 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>RU0008959580</t>
+          <t>RU000A0JNG55</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>KMAZ</t>
+          <t>OGKB</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>2018-07-18</t>
+          <t>2017-06-20</t>
         </is>
       </c>
       <c r="D514" t="n">
-        <v>1.06</v>
+        <v>0.01</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -13288,21 +13288,21 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>RU000A0JPPN4</t>
+          <t>RU000A0JNG55</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>MRKV</t>
+          <t>OGKB</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2017-06-26</t>
+          <t>2018-07-10</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -13313,21 +13313,21 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>RU000A0ET7Y7</t>
+          <t>RU0008959580</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>MSRS</t>
+          <t>KMAZ</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>2014-07-11</t>
+          <t>2018-07-18</t>
         </is>
       </c>
       <c r="D516" t="n">
-        <v>0.06</v>
+        <v>1.06</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -13338,21 +13338,21 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>RU000A0ET7Y7</t>
+          <t>RU000A0JPPN4</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>MSRS</t>
+          <t>MRKV</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>2015-07-06</t>
+          <t>2017-06-26</t>
         </is>
       </c>
       <c r="D517" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -13373,11 +13373,11 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2016-06-26</t>
+          <t>2014-07-11</t>
         </is>
       </c>
       <c r="D518" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -13398,11 +13398,11 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2017-06-21</t>
+          <t>2015-07-06</t>
         </is>
       </c>
       <c r="D519" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -13423,11 +13423,11 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2016-06-26</t>
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -13438,21 +13438,21 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>RU0006914488</t>
+          <t>RU000A0ET7Y7</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>SVAV</t>
+          <t>MSRS</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>2014-06-11</t>
+          <t>2017-06-21</t>
         </is>
       </c>
       <c r="D521" t="n">
-        <v>52.52</v>
+        <v>0.03</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -13463,21 +13463,21 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>RU0008926258</t>
+          <t>RU000A0ET7Y7</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>SNGS</t>
+          <t>MSRS</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="D522" t="n">
-        <v>0.6</v>
+        <v>0.03</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -13488,21 +13488,21 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>RU0008926258</t>
+          <t>RU0006914488</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>SNGS</t>
+          <t>SVAV</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>2015-07-16</t>
+          <t>2014-06-11</t>
         </is>
       </c>
       <c r="D523" t="n">
-        <v>0.65</v>
+        <v>52.52</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>2016-07-18</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -13548,11 +13548,11 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2017-07-19</t>
+          <t>2015-07-16</t>
         </is>
       </c>
       <c r="D525" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -13573,11 +13573,11 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>2018-07-19</t>
+          <t>2016-07-18</t>
         </is>
       </c>
       <c r="D526" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -13598,11 +13598,11 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>2019-07-18</t>
+          <t>2017-07-19</t>
         </is>
       </c>
       <c r="D527" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2018-07-19</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -13648,11 +13648,11 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2019-07-18</t>
         </is>
       </c>
       <c r="D529" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -13673,11 +13673,11 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="D530" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -13698,11 +13698,11 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="D531" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -13723,11 +13723,11 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="D532" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -13738,21 +13738,21 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>RU0009029524</t>
+          <t>RU0008926258</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>SNGSP</t>
+          <t>SNGS</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="D533" t="n">
-        <v>2.36</v>
+        <v>0.8</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -13763,21 +13763,21 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>RU0009029524</t>
+          <t>RU0008926258</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>SNGSP</t>
+          <t>SNGS</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>2015-07-16</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="D534" t="n">
-        <v>8.210000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -13798,11 +13798,11 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>2016-07-18</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="D535" t="n">
-        <v>6.92</v>
+        <v>2.36</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -13823,11 +13823,11 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2017-07-19</t>
+          <t>2015-07-16</t>
         </is>
       </c>
       <c r="D536" t="n">
-        <v>0.6</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -13848,11 +13848,11 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>2018-07-19</t>
+          <t>2016-07-18</t>
         </is>
       </c>
       <c r="D537" t="n">
-        <v>1.38</v>
+        <v>6.92</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -13873,11 +13873,11 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>2019-07-18</t>
+          <t>2017-07-19</t>
         </is>
       </c>
       <c r="D538" t="n">
-        <v>7.62</v>
+        <v>0.6</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -13898,11 +13898,11 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2018-07-19</t>
         </is>
       </c>
       <c r="D539" t="n">
-        <v>0.97</v>
+        <v>1.38</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -13923,11 +13923,11 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2019-07-18</t>
         </is>
       </c>
       <c r="D540" t="n">
-        <v>6.72</v>
+        <v>7.62</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -13948,11 +13948,11 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="D541" t="n">
-        <v>4.73</v>
+        <v>0.97</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -13973,11 +13973,11 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="D542" t="n">
-        <v>0.8</v>
+        <v>6.72</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -13998,11 +13998,11 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="D543" t="n">
-        <v>12.29</v>
+        <v>4.73</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -14013,21 +14013,21 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>RU000A0B6NK6</t>
+          <t>RU0009029524</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>TRMK</t>
+          <t>SNGSP</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="D544" t="n">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -14038,21 +14038,21 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>RU000A0B6NK6</t>
+          <t>RU0009029524</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>TRMK</t>
+          <t>SNGSP</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>2014-07-07</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="D545" t="n">
-        <v>0.78</v>
+        <v>12.29</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -14073,11 +14073,11 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>2015-01-12</t>
+          <t>2013-10-04</t>
         </is>
       </c>
       <c r="D546" t="n">
-        <v>0.4</v>
+        <v>1.04</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -14098,11 +14098,11 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>2015-10-23</t>
+          <t>2014-07-07</t>
         </is>
       </c>
       <c r="D547" t="n">
-        <v>2.42</v>
+        <v>0.78</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -14123,11 +14123,11 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>2016-10-10</t>
+          <t>2015-01-12</t>
         </is>
       </c>
       <c r="D548" t="n">
-        <v>1.94</v>
+        <v>0.4</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -14148,11 +14148,11 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>2017-06-20</t>
+          <t>2015-10-23</t>
         </is>
       </c>
       <c r="D549" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -14173,11 +14173,11 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>2018-07-02</t>
+          <t>2016-10-10</t>
         </is>
       </c>
       <c r="D550" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -14198,11 +14198,11 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>2019-07-18</t>
+          <t>2017-06-20</t>
         </is>
       </c>
       <c r="D551" t="n">
-        <v>2.55</v>
+        <v>1.96</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -14223,11 +14223,11 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>2020-12-07</t>
+          <t>2018-07-02</t>
         </is>
       </c>
       <c r="D552" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -14248,11 +14248,11 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2019-07-18</t>
         </is>
       </c>
       <c r="D553" t="n">
-        <v>9.67</v>
+        <v>2.55</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -14273,11 +14273,11 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2020-12-07</t>
         </is>
       </c>
       <c r="D554" t="n">
-        <v>17.71</v>
+        <v>3</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -14298,11 +14298,11 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2021-04-26</t>
         </is>
       </c>
       <c r="D555" t="n">
-        <v>0.82</v>
+        <v>9.67</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -14323,11 +14323,11 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="D556" t="n">
-        <v>9.68</v>
+        <v>17.71</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -14348,11 +14348,11 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="D557" t="n">
-        <v>6.78</v>
+        <v>0.82</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -14373,11 +14373,11 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="D558" t="n">
-        <v>13.45</v>
+        <v>9.68</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -14398,11 +14398,11 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="D559" t="n">
-        <v>9.51</v>
+        <v>6.78</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -14413,21 +14413,21 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>RU0009100291</t>
+          <t>RU000A0B6NK6</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>VSMO</t>
+          <t>TRMK</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>2014-06-17</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="D560" t="n">
-        <v>533.91</v>
+        <v>13.45</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -14438,21 +14438,21 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>RU0009100291</t>
+          <t>RU000A0B6NK6</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>VSMO</t>
+          <t>TRMK</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>2015-05-28</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="D561" t="n">
-        <v>831.0700000000001</v>
+        <v>9.51</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -14473,11 +14473,11 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>2015-10-09</t>
+          <t>2014-06-17</t>
         </is>
       </c>
       <c r="D562" t="n">
-        <v>788</v>
+        <v>533.91</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -14498,11 +14498,11 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>2016-05-27</t>
+          <t>2015-05-28</t>
         </is>
       </c>
       <c r="D563" t="n">
-        <v>458.22</v>
+        <v>831.0700000000001</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -14523,11 +14523,11 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>2016-10-03</t>
+          <t>2015-10-09</t>
         </is>
       </c>
       <c r="D564" t="n">
-        <v>816</v>
+        <v>788</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -14548,11 +14548,11 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>2017-06-05</t>
+          <t>2016-05-27</t>
         </is>
       </c>
       <c r="D565" t="n">
-        <v>1300</v>
+        <v>458.22</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -14573,11 +14573,11 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>2017-10-19</t>
+          <t>2016-10-03</t>
         </is>
       </c>
       <c r="D566" t="n">
-        <v>410.18</v>
+        <v>816</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -14598,11 +14598,11 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>2018-06-06</t>
+          <t>2017-06-05</t>
         </is>
       </c>
       <c r="D567" t="n">
-        <v>890.45</v>
+        <v>1300</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -14613,50 +14613,50 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>US74735M1080</t>
+          <t>RU0009100291</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>QIWI</t>
+          <t>VSMO</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>2016-03-29</t>
+          <t>2017-10-19</t>
         </is>
       </c>
       <c r="D568" t="n">
-        <v>0.5</v>
+        <v>410.18</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>RUB</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>US74735M1080</t>
+          <t>RU0009100291</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>QIWI</t>
+          <t>VSMO</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>2016-05-26</t>
+          <t>2018-06-06</t>
         </is>
       </c>
       <c r="D569" t="n">
-        <v>0.22</v>
+        <v>890.45</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>RUB</t>
         </is>
       </c>
     </row>
@@ -14673,11 +14673,11 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>2016-08-29</t>
+          <t>2016-03-29</t>
         </is>
       </c>
       <c r="D570" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>2016-12-05</t>
+          <t>2016-05-26</t>
         </is>
       </c>
       <c r="D571" t="n">
@@ -14723,11 +14723,11 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>2017-04-03</t>
+          <t>2016-08-29</t>
         </is>
       </c>
       <c r="D572" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -14748,11 +14748,11 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2017-05-30</t>
+          <t>2016-12-05</t>
         </is>
       </c>
       <c r="D573" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -14773,11 +14773,11 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>2017-08-29</t>
+          <t>2017-04-03</t>
         </is>
       </c>
       <c r="D574" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -14788,21 +14788,21 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>JE00B6T5S470</t>
+          <t>US74735M1080</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>POLY</t>
+          <t>QIWI</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>2015-09-04</t>
+          <t>2017-05-30</t>
         </is>
       </c>
       <c r="D575" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -14813,21 +14813,21 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>JE00B6T5S470</t>
+          <t>US74735M1080</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>POLY</t>
+          <t>QIWI</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2015-12-11</t>
+          <t>2017-08-29</t>
         </is>
       </c>
       <c r="D576" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -14848,11 +14848,11 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>2016-05-06</t>
+          <t>2015-09-04</t>
         </is>
       </c>
       <c r="D577" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -14873,11 +14873,11 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>2016-09-02</t>
+          <t>2015-12-11</t>
         </is>
       </c>
       <c r="D578" t="n">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -14898,11 +14898,11 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>2016-12-16</t>
+          <t>2016-05-06</t>
         </is>
       </c>
       <c r="D579" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -14923,11 +14923,11 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>2017-05-05</t>
+          <t>2016-09-02</t>
         </is>
       </c>
       <c r="D580" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -14948,11 +14948,11 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>2017-09-08</t>
+          <t>2016-12-16</t>
         </is>
       </c>
       <c r="D581" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -14973,11 +14973,11 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>2018-05-11</t>
+          <t>2017-05-05</t>
         </is>
       </c>
       <c r="D582" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -14988,50 +14988,50 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>RU0007976957</t>
+          <t>JE00B6T5S470</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>BANE</t>
+          <t>POLY</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>2013-11-05</t>
+          <t>2017-09-08</t>
         </is>
       </c>
       <c r="D583" t="n">
-        <v>199</v>
+        <v>0.14</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>RU0007976957</t>
+          <t>JE00B6T5S470</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>BANE</t>
+          <t>POLY</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>2014-06-23</t>
+          <t>2018-05-11</t>
         </is>
       </c>
       <c r="D584" t="n">
-        <v>211</v>
+        <v>0.3</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>USD</t>
         </is>
       </c>
     </row>
@@ -15048,11 +15048,11 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2013-11-05</t>
         </is>
       </c>
       <c r="D585" t="n">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -15073,11 +15073,11 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>2016-07-15</t>
+          <t>2014-06-23</t>
         </is>
       </c>
       <c r="D586" t="n">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -15098,11 +15098,11 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2017-12-12</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="D587" t="n">
-        <v>148.31</v>
+        <v>113</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -15123,11 +15123,11 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
+          <t>2016-07-15</t>
         </is>
       </c>
       <c r="D588" t="n">
-        <v>158.95</v>
+        <v>164</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -15138,21 +15138,21 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>RU0007976965</t>
+          <t>RU0007976957</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>BANEP</t>
+          <t>BANE</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>2013-11-05</t>
+          <t>2017-12-12</t>
         </is>
       </c>
       <c r="D589" t="n">
-        <v>199</v>
+        <v>148.31</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -15163,21 +15163,21 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>RU0007976965</t>
+          <t>RU0007976957</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>BANEP</t>
+          <t>BANE</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>2014-06-23</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="D590" t="n">
-        <v>211</v>
+        <v>158.95</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -15198,11 +15198,11 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>2015-07-17</t>
+          <t>2013-11-05</t>
         </is>
       </c>
       <c r="D591" t="n">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -15223,11 +15223,11 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2016-07-15</t>
+          <t>2014-06-23</t>
         </is>
       </c>
       <c r="D592" t="n">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -15248,11 +15248,11 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>2017-07-12</t>
+          <t>2015-07-17</t>
         </is>
       </c>
       <c r="D593" t="n">
-        <v>0.1</v>
+        <v>113</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -15273,11 +15273,11 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>2017-12-12</t>
+          <t>2016-07-15</t>
         </is>
       </c>
       <c r="D594" t="n">
-        <v>148.31</v>
+        <v>164</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -15298,11 +15298,11 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
+          <t>2017-07-12</t>
         </is>
       </c>
       <c r="D595" t="n">
-        <v>158.95</v>
+        <v>0.1</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -15313,21 +15313,21 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>RU0007984761</t>
+          <t>RU0007976965</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>VLHZ</t>
+          <t>BANEP</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>2013-08-08</t>
+          <t>2017-12-12</t>
         </is>
       </c>
       <c r="D596" t="n">
-        <v>9.5</v>
+        <v>148.31</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -15338,21 +15338,21 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>RU000A0JQG78</t>
+          <t>RU0007976965</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>GAZS</t>
+          <t>BANEP</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2013-10-21</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="D597" t="n">
-        <v>4.81</v>
+        <v>158.95</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -15363,21 +15363,21 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>RU000A0JQG86</t>
+          <t>RU0007984761</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>GAZC</t>
+          <t>VLHZ</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>2013-10-21</t>
+          <t>2013-08-08</t>
         </is>
       </c>
       <c r="D598" t="n">
-        <v>4.81</v>
+        <v>9.5</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -15388,21 +15388,21 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>RU0009062467</t>
+          <t>RU000A0JQG78</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>GAZS</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>2013-08-25</t>
+          <t>2013-10-21</t>
         </is>
       </c>
       <c r="D599" t="n">
-        <v>4.09</v>
+        <v>4.81</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -15413,21 +15413,21 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>RU0009062467</t>
+          <t>RU000A0JQG86</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>GAZC</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>2014-06-23</t>
+          <t>2013-10-21</t>
         </is>
       </c>
       <c r="D600" t="n">
-        <v>5.29</v>
+        <v>4.81</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -15448,11 +15448,11 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>2014-10-17</t>
+          <t>2013-08-25</t>
         </is>
       </c>
       <c r="D601" t="n">
-        <v>4.62</v>
+        <v>4.09</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -15473,11 +15473,11 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>2015-06-22</t>
+          <t>2014-06-23</t>
         </is>
       </c>
       <c r="D602" t="n">
-        <v>1.85</v>
+        <v>5.29</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -15498,11 +15498,11 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>2015-10-16</t>
+          <t>2014-10-17</t>
         </is>
       </c>
       <c r="D603" t="n">
-        <v>5.92</v>
+        <v>4.62</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -15523,11 +15523,11 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>2016-06-27</t>
+          <t>2015-06-22</t>
         </is>
       </c>
       <c r="D604" t="n">
-        <v>0.55</v>
+        <v>1.85</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -15548,11 +15548,11 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>2017-06-26</t>
+          <t>2015-10-16</t>
         </is>
       </c>
       <c r="D605" t="n">
-        <v>10.68</v>
+        <v>5.92</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -15573,11 +15573,11 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>2017-12-29</t>
+          <t>2016-06-27</t>
         </is>
       </c>
       <c r="D606" t="n">
-        <v>10</v>
+        <v>0.55</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -15598,11 +15598,11 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>2018-06-26</t>
+          <t>2017-06-26</t>
         </is>
       </c>
       <c r="D607" t="n">
-        <v>5</v>
+        <v>10.68</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -15613,21 +15613,21 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>RU000A0JL4R1</t>
+          <t>RU0009062467</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>GCHE</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
+          <t>2017-12-29</t>
         </is>
       </c>
       <c r="D608" t="n">
-        <v>75.06999999999999</v>
+        <v>10</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -15638,21 +15638,21 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>RU000A0JSQ90</t>
+          <t>RU0009062467</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>DSKY</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>2017-07-17</t>
+          <t>2018-06-26</t>
         </is>
       </c>
       <c r="D609" t="n">
-        <v>3.48</v>
+        <v>5</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -15663,21 +15663,21 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>RU000A0JSQ90</t>
+          <t>RU000A0JL4R1</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>DSKY</t>
+          <t>GCHE</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>2017-12-04</t>
+          <t>2018-04-03</t>
         </is>
       </c>
       <c r="D610" t="n">
-        <v>2.97</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -15698,11 +15698,11 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>2017-12-15</t>
+          <t>2017-07-17</t>
         </is>
       </c>
       <c r="D611" t="n">
-        <v>2.97</v>
+        <v>3.48</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -15723,11 +15723,11 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>2018-05-29</t>
+          <t>2017-12-04</t>
         </is>
       </c>
       <c r="D612" t="n">
-        <v>3.88</v>
+        <v>2.97</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -15748,11 +15748,11 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>2018-12-26</t>
+          <t>2017-12-15</t>
         </is>
       </c>
       <c r="D613" t="n">
-        <v>4.39</v>
+        <v>2.97</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -15773,11 +15773,11 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>2019-05-27</t>
+          <t>2018-05-29</t>
         </is>
       </c>
       <c r="D614" t="n">
-        <v>4.45</v>
+        <v>3.88</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -15798,11 +15798,11 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2018-12-26</t>
         </is>
       </c>
       <c r="D615" t="n">
-        <v>5.06</v>
+        <v>4.39</v>
       </c>
       <c r="E615" t="inlineStr">
         <is>
@@ -15823,11 +15823,11 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>2020-07-11</t>
+          <t>2019-05-27</t>
         </is>
       </c>
       <c r="D616" t="n">
-        <v>3</v>
+        <v>4.45</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -15848,11 +15848,11 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="D617" t="n">
-        <v>2.5</v>
+        <v>5.06</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -15873,11 +15873,11 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>2020-12-28</t>
+          <t>2020-07-11</t>
         </is>
       </c>
       <c r="D618" t="n">
-        <v>5.08</v>
+        <v>3</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -15898,11 +15898,11 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>2021-07-11</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="D619" t="n">
-        <v>6.07</v>
+        <v>2.5</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -15923,11 +15923,11 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>2021-12-26</t>
+          <t>2020-12-28</t>
         </is>
       </c>
       <c r="D620" t="n">
-        <v>5.2</v>
+        <v>5.08</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -15938,21 +15938,21 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>RU000A0B9BV2</t>
+          <t>RU000A0JSQ90</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>KAZT</t>
+          <t>DSKY</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>2013-08-02</t>
+          <t>2021-07-11</t>
         </is>
       </c>
       <c r="D621" t="n">
-        <v>1</v>
+        <v>6.07</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -15963,21 +15963,21 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>RU000A0B9BV2</t>
+          <t>RU000A0JSQ90</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>KAZT</t>
+          <t>DSKY</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>2013-11-05</t>
+          <t>2021-12-26</t>
         </is>
       </c>
       <c r="D622" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -15988,12 +15988,12 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>RU000A0B9BW0</t>
+          <t>RU000A0B9BV2</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>KAZTP</t>
+          <t>KAZT</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -16013,12 +16013,12 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>RU000A0B9BW0</t>
+          <t>RU000A0B9BV2</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>KAZTP</t>
+          <t>KAZT</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -16038,21 +16038,21 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>RU0009177331</t>
+          <t>RU000A0B9BW0</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>MSTT</t>
+          <t>KAZTP</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>2014-07-16</t>
+          <t>2013-08-02</t>
         </is>
       </c>
       <c r="D625" t="n">
-        <v>7.09</v>
+        <v>1</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -16063,21 +16063,21 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>RU0009177331</t>
+          <t>RU000A0B9BW0</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>MSTT</t>
+          <t>KAZTP</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>2015-05-25</t>
+          <t>2013-11-05</t>
         </is>
       </c>
       <c r="D626" t="n">
-        <v>7.09</v>
+        <v>1</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
@@ -16098,11 +16098,11 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>2016-07-11</t>
+          <t>2014-07-16</t>
         </is>
       </c>
       <c r="D627" t="n">
-        <v>10.64</v>
+        <v>7.09</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -16123,11 +16123,11 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>2017-07-18</t>
+          <t>2015-05-25</t>
         </is>
       </c>
       <c r="D628" t="n">
-        <v>10.64</v>
+        <v>7.09</v>
       </c>
       <c r="E628" t="inlineStr">
         <is>
@@ -16148,11 +16148,11 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>2017-12-19</t>
+          <t>2016-07-11</t>
         </is>
       </c>
       <c r="D629" t="n">
-        <v>8.449999999999999</v>
+        <v>10.64</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
@@ -16173,11 +16173,11 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>2018-07-03</t>
+          <t>2017-07-18</t>
         </is>
       </c>
       <c r="D630" t="n">
-        <v>2.19</v>
+        <v>10.64</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -16188,21 +16188,21 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>RU000A0JKQU8</t>
+          <t>RU0009177331</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>MGNT</t>
+          <t>MSTT</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>2013-08-09</t>
+          <t>2017-12-19</t>
         </is>
       </c>
       <c r="D631" t="n">
-        <v>46.06</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -16213,21 +16213,21 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>RU000A0JKQU8</t>
+          <t>RU0009177331</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>MGNT</t>
+          <t>MSTT</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>2014-06-13</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="D632" t="n">
-        <v>89.15000000000001</v>
+        <v>2.19</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -16248,11 +16248,11 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>2014-10-10</t>
+          <t>2013-08-09</t>
         </is>
       </c>
       <c r="D633" t="n">
-        <v>78.3</v>
+        <v>46.06</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -16273,11 +16273,11 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>2014-10-29</t>
+          <t>2014-06-13</t>
         </is>
       </c>
       <c r="D634" t="n">
-        <v>152.07</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -16298,11 +16298,11 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>2014-12-30</t>
+          <t>2014-10-10</t>
         </is>
       </c>
       <c r="D635" t="n">
-        <v>152.07</v>
+        <v>78.3</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -16323,11 +16323,11 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>2015-06-19</t>
+          <t>2014-10-29</t>
         </is>
       </c>
       <c r="D636" t="n">
-        <v>132.57</v>
+        <v>152.07</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -16348,11 +16348,11 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>2015-10-09</t>
+          <t>2014-12-30</t>
         </is>
       </c>
       <c r="D637" t="n">
-        <v>88.40000000000001</v>
+        <v>152.07</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -16373,11 +16373,11 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>2016-01-08</t>
+          <t>2015-06-19</t>
         </is>
       </c>
       <c r="D638" t="n">
-        <v>179.77</v>
+        <v>132.57</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -16398,11 +16398,11 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>2016-06-17</t>
+          <t>2015-10-09</t>
         </is>
       </c>
       <c r="D639" t="n">
-        <v>42.3</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -16423,11 +16423,11 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>2016-09-23</t>
+          <t>2016-01-08</t>
         </is>
       </c>
       <c r="D640" t="n">
-        <v>84.59999999999999</v>
+        <v>179.77</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -16448,11 +16448,11 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>2016-12-23</t>
+          <t>2016-06-17</t>
         </is>
       </c>
       <c r="D641" t="n">
-        <v>126.12</v>
+        <v>42.3</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -16473,11 +16473,11 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>2017-06-23</t>
+          <t>2016-09-23</t>
         </is>
       </c>
       <c r="D642" t="n">
-        <v>67.41</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -16498,11 +16498,11 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>2017-09-15</t>
+          <t>2016-12-23</t>
         </is>
       </c>
       <c r="D643" t="n">
-        <v>115.51</v>
+        <v>126.12</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -16523,11 +16523,11 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>2018-07-06</t>
+          <t>2017-06-23</t>
         </is>
       </c>
       <c r="D644" t="n">
-        <v>135.5</v>
+        <v>67.41</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -16548,11 +16548,11 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>2018-12-21</t>
+          <t>2017-09-15</t>
         </is>
       </c>
       <c r="D645" t="n">
-        <v>137.38</v>
+        <v>115.51</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -16573,11 +16573,11 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>2019-06-14</t>
+          <t>2018-07-06</t>
         </is>
       </c>
       <c r="D646" t="n">
-        <v>166.78</v>
+        <v>135.5</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -16598,11 +16598,11 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2018-12-21</t>
         </is>
       </c>
       <c r="D647" t="n">
-        <v>147.19</v>
+        <v>137.38</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -16623,11 +16623,11 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>2020-06-19</t>
+          <t>2019-06-14</t>
         </is>
       </c>
       <c r="D648" t="n">
-        <v>157</v>
+        <v>166.78</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -16648,11 +16648,11 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>2021-01-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="D649" t="n">
-        <v>245.31</v>
+        <v>147.19</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -16673,11 +16673,11 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>2020-06-19</t>
         </is>
       </c>
       <c r="D650" t="n">
-        <v>245.31</v>
+        <v>157</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -16698,11 +16698,11 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-01-08</t>
         </is>
       </c>
       <c r="D651" t="n">
-        <v>294.37</v>
+        <v>245.31</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -16723,11 +16723,11 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="D652" t="n">
-        <v>412.13</v>
+        <v>245.31</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -16748,11 +16748,11 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="D653" t="n">
-        <v>412.13</v>
+        <v>294.37</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -16763,21 +16763,21 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>RU0009084446</t>
+          <t>RU000A0JKQU8</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NMTP</t>
+          <t>MGNT</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>2014-07-09</t>
+          <t>2024-01-11</t>
         </is>
       </c>
       <c r="D654" t="n">
-        <v>0.02</v>
+        <v>412.13</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -16788,21 +16788,21 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>RU0009084446</t>
+          <t>RU000A0JKQU8</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NMTP</t>
+          <t>MGNT</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="D655" t="n">
-        <v>0.23</v>
+        <v>412.13</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -16823,11 +16823,11 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>2016-07-05</t>
+          <t>2014-07-09</t>
         </is>
       </c>
       <c r="D656" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -16848,11 +16848,11 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>2016-09-14</t>
+          <t>2015-07-13</t>
         </is>
       </c>
       <c r="D657" t="n">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16873,11 +16873,11 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>2017-05-29</t>
+          <t>2016-07-05</t>
         </is>
       </c>
       <c r="D658" t="n">
-        <v>0.78</v>
+        <v>0.05</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -16888,21 +16888,21 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>RU0006752979</t>
+          <t>RU0009084446</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>IRKT</t>
+          <t>NMTP</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>2018-07-17</t>
+          <t>2016-09-14</t>
         </is>
       </c>
       <c r="D659" t="n">
-        <v>1.14</v>
+        <v>0.47</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -16913,23 +16913,73 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
+          <t>RU0009084446</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>NMTP</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>2017-05-29</t>
+        </is>
+      </c>
+      <c r="D660" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>RU0006752979</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>IRKT</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>2018-07-17</t>
+        </is>
+      </c>
+      <c r="D661" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
           <t>RU000A0DPNQ5</t>
         </is>
       </c>
-      <c r="B660" t="inlineStr">
+      <c r="B662" t="inlineStr">
         <is>
           <t>PRMB</t>
         </is>
       </c>
-      <c r="C660" t="inlineStr">
+      <c r="C662" t="inlineStr">
         <is>
           <t>2013-10-09</t>
         </is>
       </c>
-      <c r="D660" t="n">
+      <c r="D662" t="n">
         <v>880</v>
       </c>
-      <c r="E660" t="inlineStr">
+      <c r="E662" t="inlineStr">
         <is>
           <t>RUB</t>
         </is>
